--- a/excel/Buff_增益效果表.xlsx
+++ b/excel/Buff_增益效果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>间隔触发时间（毫秒）</t>
+  </si>
+  <si>
+    <t>触发延迟（毫秒）</t>
   </si>
   <si>
     <t>id</t>
@@ -134,10 +137,13 @@
     <t>client</t>
   </si>
   <si>
-    <t>流血</t>
+    <t>扣血</t>
   </si>
   <si>
     <t>无</t>
+  </si>
+  <si>
+    <t>流血</t>
   </si>
   <si>
     <t>腐蚀</t>
@@ -1144,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1188,152 +1194,134 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1341,13 +1329,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1370,12 +1358,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
@@ -1383,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="5">
         <v>1000</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1397,27 +1387,54 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>1000</v>
       </c>
     </row>
